--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-0.2/avg_0.003_scores.xlsx
@@ -40,15 +40,15 @@
     <t>name</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
     <t>illegal</t>
   </si>
   <si>
@@ -58,34 +58,34 @@
     <t>terrifying</t>
   </si>
   <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
     <t>scary</t>
   </si>
   <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>crazy</t>
+    <t>dark</t>
   </si>
   <si>
     <t>bad</t>
@@ -97,34 +97,34 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>brilliant</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>brilliant</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
+    <t>powerful</t>
+  </si>
+  <si>
     <t>social</t>
   </si>
   <si>
     <t>media</t>
-  </si>
-  <si>
-    <t>netflix</t>
   </si>
   <si>
     <t>positive</t>
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -578,13 +578,13 @@
         <v>26</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -604,13 +604,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -622,19 +622,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K4">
-        <v>0.8666666666666667</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L4">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="M4">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -654,13 +654,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9333333333333333</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -672,19 +672,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K5">
-        <v>0.86</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -728,13 +728,13 @@
         <v>29</v>
       </c>
       <c r="K6">
-        <v>0.8181818181818182</v>
+        <v>0.84</v>
       </c>
       <c r="L6">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -778,13 +778,13 @@
         <v>30</v>
       </c>
       <c r="K7">
-        <v>0.6842105263157895</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L7">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M7">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -796,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -804,13 +804,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8787878787878788</v>
+        <v>0.8939393939393939</v>
       </c>
       <c r="C8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -822,19 +822,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K8">
-        <v>0.6</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="L8">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="M8">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -854,13 +854,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7894736842105263</v>
+        <v>0.7</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -872,19 +872,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K9">
-        <v>0.5862068965517241</v>
+        <v>0.5866666666666667</v>
       </c>
       <c r="L9">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="M9">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -904,13 +904,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6923076923076923</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -922,19 +922,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K10">
-        <v>0.5833333333333334</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="L10">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M10">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -954,7 +954,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5882352941176471</v>
+        <v>0.625</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -972,19 +972,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K11">
-        <v>0.05737704918032787</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="L11">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="M11">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1035</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1004,13 +1004,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.575</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D12">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1022,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K12">
-        <v>0.01807228915662651</v>
+        <v>0.05919854280510018</v>
       </c>
       <c r="L12">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="M12">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>652</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1054,13 +1054,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5625</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1072,19 +1072,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K13">
-        <v>0.01666666666666667</v>
+        <v>0.01506024096385542</v>
       </c>
       <c r="L13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>531</v>
+        <v>654</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1104,13 +1104,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5217391304347826</v>
+        <v>0.45</v>
       </c>
       <c r="C14">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>66</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1130,13 +1130,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.425531914893617</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1156,13 +1156,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.391304347826087</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1182,13 +1182,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3571428571428572</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1208,13 +1208,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3428571428571429</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1234,13 +1234,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2307692307692308</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
